--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori1/99/word_level_predictions_99.xlsx
@@ -2790,468 +2790,468 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" s="2" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>9</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>2</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
+      <c r="I221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="I222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>8</v>
-      </c>
-      <c r="E222" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
+      <c r="I224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>18</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>9</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>18</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>10</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>18</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>11</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14785,11 +14785,11 @@
         </is>
       </c>
       <c r="I276" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K276" s="2" t="b">
@@ -14837,11 +14837,11 @@
         </is>
       </c>
       <c r="I277" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K277" s="2" t="b">
@@ -14889,11 +14889,11 @@
         </is>
       </c>
       <c r="I278" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K278" s="2" t="b">
@@ -14941,11 +14941,11 @@
         </is>
       </c>
       <c r="I279" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K279" s="2" t="b">
@@ -14993,11 +14993,11 @@
         </is>
       </c>
       <c r="I280" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K280" s="2" t="b">
@@ -15045,11 +15045,11 @@
         </is>
       </c>
       <c r="I281" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K281" s="2" t="b">
@@ -15097,11 +15097,11 @@
         </is>
       </c>
       <c r="I282" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K282" s="2" t="b">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="F283" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G283" s="2" t="b">
@@ -15149,11 +15149,11 @@
         </is>
       </c>
       <c r="I283" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K283" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori1/99/word_level_predictions_99.xlsx
@@ -2790,468 +2790,468 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>8</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" t="n">
         <v>3</v>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" t="n">
         <v>9</v>
       </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>10</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" t="n">
         <v>11</v>
       </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>12</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>13</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>14</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>15</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>16</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="D124" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>18</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>7</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>18</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>8</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>18</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>9</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>18</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>10</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>18</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>11</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14785,11 +14785,11 @@
         </is>
       </c>
       <c r="I276" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K276" s="2" t="b">
@@ -14837,11 +14837,11 @@
         </is>
       </c>
       <c r="I277" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K277" s="2" t="b">
@@ -14889,11 +14889,11 @@
         </is>
       </c>
       <c r="I278" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K278" s="2" t="b">
@@ -14941,11 +14941,11 @@
         </is>
       </c>
       <c r="I279" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K279" s="2" t="b">
@@ -14993,11 +14993,11 @@
         </is>
       </c>
       <c r="I280" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K280" s="2" t="b">
@@ -15045,11 +15045,11 @@
         </is>
       </c>
       <c r="I281" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K281" s="2" t="b">
@@ -15097,11 +15097,11 @@
         </is>
       </c>
       <c r="I282" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K282" s="2" t="b">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="F283" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G283" s="2" t="b">
@@ -15149,11 +15149,11 @@
         </is>
       </c>
       <c r="I283" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K283" s="2" t="b">
